--- a/data/case1/5/Plm2_2.xlsx
+++ b/data/case1/5/Plm2_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.29401807251281298</v>
+        <v>-0.47694268276958951</v>
       </c>
       <c r="B1" s="0">
-        <v>0.29337740183071048</v>
+        <v>0.47512201297587353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.24726877800266678</v>
+        <v>-0.2660595195594837</v>
       </c>
       <c r="B2" s="0">
-        <v>0.24473592640633868</v>
+        <v>0.26293680953941312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.10484224651033358</v>
+        <v>-0.15998318260936273</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10447502353363447</v>
+        <v>0.1590336137639774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.092475023743023854</v>
+        <v>-0.1470336139189552</v>
       </c>
       <c r="B4" s="0">
-        <v>0.092175986080768268</v>
+        <v>0.14618207711446374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.086175986961072759</v>
+        <v>-0.14018207771819924</v>
       </c>
       <c r="B5" s="0">
-        <v>0.085601661781729455</v>
+        <v>0.13847530306113498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.073031702536467957</v>
+        <v>-0.03750170446422052</v>
       </c>
       <c r="B6" s="0">
-        <v>0.072951178407305139</v>
+        <v>0.037483044034979596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.052951179456023567</v>
+        <v>-0.017483044759686095</v>
       </c>
       <c r="B7" s="0">
-        <v>0.052792596986867224</v>
+        <v>0.017469634245472321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.032792598042265197</v>
+        <v>0.0025303650283738932</v>
       </c>
       <c r="B8" s="0">
-        <v>0.032704759254272631</v>
+        <v>-0.0025383693136173946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.026704760163597463</v>
+        <v>0.0085383686895985633</v>
       </c>
       <c r="B9" s="0">
-        <v>0.026644383721535547</v>
+        <v>-0.0085544581386320928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.020644384635716051</v>
+        <v>0.014554457515693286</v>
       </c>
       <c r="B10" s="0">
-        <v>0.020644860504191342</v>
+        <v>-0.014554264177043308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.016144861402196398</v>
+        <v>-0.051478094278216702</v>
       </c>
       <c r="B11" s="0">
-        <v>0.016141446225329759</v>
+        <v>0.051399194364805112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.010141447140430415</v>
+        <v>-0.045399194989336866</v>
       </c>
       <c r="B12" s="0">
-        <v>0.010129660123308515</v>
+        <v>0.04515223142864544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0041296610405945344</v>
+        <v>-0.039152232063138115</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0041292160191321869</v>
+        <v>0.03908515863858586</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0078707829983386546</v>
+        <v>-0.027085159319679697</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0078743310111750731</v>
+        <v>0.027052946022028124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.013874330094726162</v>
+        <v>-0.021052946661519023</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.013886487976814799</v>
+        <v>0.021027617875531313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.054749015116412725</v>
+        <v>-0.015027618516980645</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.055097753315918485</v>
+        <v>0.015004204735265425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009003832747279894</v>
+        <v>-0.009004205379383734</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999990681048914</v>
+        <v>0.0089999993334215489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036108624714724868</v>
+        <v>-0.12114913050325882</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096211280064239</v>
+        <v>0.12095537865361905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.02709621215618796</v>
+        <v>-0.02709702701928407</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013067888068232</v>
+        <v>0.027013438276866975</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.01801306877197284</v>
+        <v>-0.018013438876620214</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004232923466645</v>
+        <v>0.018004212285338994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042338084392881</v>
+        <v>-0.0090042128859000314</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999991143319136</v>
+        <v>0.0089999993989149374</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093947435340799856</v>
+        <v>-0.093953627540473761</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093635087022555297</v>
+        <v>0.093638805407485037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.08463508793084884</v>
+        <v>-0.084638806023416002</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126704399449359</v>
+        <v>0.084127593853497551</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126705681339693</v>
+        <v>-0.042127594718559536</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998711074404</v>
+        <v>0.041999999130128529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0065699601392417151</v>
+        <v>-0.094973599218754146</v>
       </c>
       <c r="B25" s="0">
-        <v>0.006570119850536571</v>
+        <v>0.094726423294535067</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.00057012074451989747</v>
+        <v>-0.088726423918330966</v>
       </c>
       <c r="B26" s="0">
-        <v>0.00056858929765368771</v>
+        <v>0.088406916721748274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.057692092774881409</v>
+        <v>-0.082406917348798014</v>
       </c>
       <c r="B27" s="0">
-        <v>0.057202174502696934</v>
+        <v>0.081310254286453443</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.051202175409374107</v>
+        <v>-0.075310254927609677</v>
       </c>
       <c r="B28" s="0">
-        <v>0.050878303306121531</v>
+        <v>0.074550463743464412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.038878304286395604</v>
+        <v>-0.062550464437647335</v>
       </c>
       <c r="B29" s="0">
-        <v>0.038739230872858244</v>
+        <v>0.062174182619992635</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.018739231943615042</v>
+        <v>-0.042174183377087004</v>
       </c>
       <c r="B30" s="0">
-        <v>0.018711185541028019</v>
+        <v>0.042019807312498436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027017848217823826</v>
+        <v>-0.027019808039769444</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000533012579098</v>
+        <v>0.027000590299820715</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005340988471545</v>
+        <v>-0.0060005910718636812</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990765948752</v>
+        <v>0.0059999993369705962</v>
       </c>
     </row>
   </sheetData>
